--- a/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
+++ b/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Canada\eps-canada\InputData\ctrl-settings\GRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA381170-8E27-40B4-9CBD-1B52CDE9D60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2670" windowWidth="25665" windowHeight="13515" tabRatio="698"/>
+    <workbookView xWindow="315" yWindow="200" windowWidth="10390" windowHeight="9805" tabRatio="698" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="GRA-ntnldebtinterest" sheetId="15" r:id="rId10"/>
     <sheet name="GRA-remainder" sheetId="16" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +36,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,26 +46,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={4F81BCB5-E56D-426A-91DB-BCF0877CB817}</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     It is recommended to leave this cell set to zero and to set a non-zero value in at least one other cell in this row.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -272,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +375,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -713,22 +708,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="2" max="2" width="80.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,72 +731,72 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -809,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -817,7 +812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -825,7 +820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -833,7 +828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -841,114 +836,114 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -960,7 +955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -968,12 +963,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -981,7 +976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -990,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -998,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1006,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1014,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1028,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1036,12 +1031,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1058,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1066,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1074,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1082,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1096,7 +1091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -1106,33 +1101,33 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1142,7 +1137,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1162,7 +1157,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1202,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1222,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1242,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1262,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1282,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1302,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1322,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1342,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
@@ -1352,12 +1347,12 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1377,7 +1372,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1427,7 +1422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1452,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1477,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1502,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1527,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1552,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1577,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1610,22 +1605,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1633,16 +1628,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B8:F8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1650,23 +1644,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1680,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1690,12 +1684,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1703,7 +1697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1712,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1720,7 +1714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1728,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1736,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1750,7 +1744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1758,12 +1752,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1771,7 +1765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1780,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1788,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1796,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1804,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1818,7 +1812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1826,12 +1820,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1839,7 +1833,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1848,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1856,7 +1850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1864,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1872,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1886,7 +1880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1894,12 +1888,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1907,7 +1901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1916,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1924,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1932,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1940,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1954,7 +1948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1962,12 +1956,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1975,7 +1969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1984,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1992,7 +1986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2000,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2008,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2022,7 +2016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2030,12 +2024,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2043,7 +2037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2052,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2060,7 +2054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2068,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2076,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>64</v>
       </c>

--- a/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
+++ b/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Canada\eps-canada\InputData\ctrl-settings\GRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA381170-8E27-40B4-9CBD-1B52CDE9D60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="200" windowWidth="10390" windowHeight="9805" tabRatio="698" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="2670" windowWidth="25665" windowHeight="13515" tabRatio="698"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="GRA-ntnldebtinterest" sheetId="15" r:id="rId10"/>
     <sheet name="GRA-remainder" sheetId="16" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +35,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,17 +42,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={4F81BCB5-E56D-426A-91DB-BCF0877CB817}</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C15" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     It is recommended to leave this cell set to zero and to set a non-zero value in at least one other cell in this row.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -267,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +380,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -708,22 +713,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="80.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -731,72 +736,72 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -804,7 +809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -812,7 +817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -820,7 +825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -828,7 +833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -836,114 +841,114 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -955,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -963,12 +968,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -976,7 +981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -985,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -993,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1001,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1009,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1023,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1031,12 +1036,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1053,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1061,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1077,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1091,7 +1096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -1101,33 +1106,33 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1137,7 +1142,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1157,7 +1162,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1177,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1217,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1237,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1257,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1277,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1297,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1317,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1337,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
@@ -1347,12 +1352,12 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1422,7 +1427,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1447,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1522,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1547,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1572,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1605,22 +1610,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1628,15 +1633,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B8:F8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1644,23 +1650,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1674,7 +1680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1684,12 +1690,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1697,7 +1703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1744,7 +1750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1752,12 +1758,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1812,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1820,12 +1826,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1880,7 +1886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1888,12 +1894,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1910,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1948,7 +1954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1956,12 +1962,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1986,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2016,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2024,12 +2030,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>

--- a/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
+++ b/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/ctrl-settings/GRA/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63126A56-4C83-49C7-B5AB-E9472C4A1DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2670" windowWidth="25665" windowHeight="13515" tabRatio="698"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="698" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="GRA-ntnldebtinterest" sheetId="15" r:id="rId10"/>
     <sheet name="GRA-remainder" sheetId="16" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +36,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,26 +46,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={4F81BCB5-E56D-426A-91DB-BCF0877CB817}</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     It is recommended to leave this cell set to zero and to set a non-zero value in at least one other cell in this row.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -272,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +375,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -713,22 +708,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.86328125" customWidth="1"/>
+    <col min="2" max="2" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,72 +731,72 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -809,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -817,7 +812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -825,7 +820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -833,7 +828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -841,114 +836,114 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -960,7 +955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -968,12 +963,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -981,7 +976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -990,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -998,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1006,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1014,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1028,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1036,12 +1031,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1058,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1066,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1074,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1082,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1096,43 +1091,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1142,7 +1137,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1162,7 +1157,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1170,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1190,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1222,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1242,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1262,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1282,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1302,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1322,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1342,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
@@ -1352,12 +1347,12 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1377,7 +1372,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1387,22 +1382,22 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" ref="C22:F22" si="0">IFERROR(C8/SUM($B8:$F8),1/COUNT($B8:$F8))</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.8</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1412,22 +1407,22 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1452,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1477,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1502,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1527,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1552,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1577,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1610,22 +1605,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1642,31 +1637,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
       <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1680,7 +1675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1690,12 +1685,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1703,7 +1698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1712,36 +1707,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
       <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1758,12 +1753,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1771,7 +1766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1780,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1788,7 +1783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1796,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1804,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1818,7 +1813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1826,12 +1821,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1839,7 +1834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1848,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1856,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1864,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1872,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1886,7 +1881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1894,12 +1889,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1907,7 +1902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1916,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1924,7 +1919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1932,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1940,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1954,7 +1949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1962,12 +1957,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1975,7 +1970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1984,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1992,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2000,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2008,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2022,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2030,12 +2025,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2043,7 +2038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2052,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2060,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2068,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2076,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2087,4 +2082,322 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{849331D0-7ABC-4094-A401-E9E33BAB6987}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB594553-F7FB-4D70-B4AA-94A121CC905C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2639D4A-29E1-409A-8F41-AD3C1D535D01}"/>
 </file>